--- a/biology/Botanique/Aechmea_comata/Aechmea_comata.xlsx
+++ b/biology/Botanique/Aechmea_comata/Aechmea_comata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea comata est une espèce de plantes de la famille des Bromeliaceae, endémique de la forêt atlantique (mata atlântica en portugais) au Brésil.
 </t>
@@ -511,26 +523,28 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea comata var. makoyana (Mez) L.B.Sm.[1] ;
-Aechmea lindenii (E.Morren) Baker[1] ;
-Aechmea lindenii var. makoyana Mez[1] ;
-Aechmea makoyana Jacob-Makoy[1] ;
-Billbergia forgetiana Sander[1] ;
-Chevaliera comata (Gaudich.) Mez[1] ;
-Hohenbergia comata (Gaudich.) Baker[1] ;
-Hoplophytum comatum (Gaudich.) Beer[1] ;
-Hoplophytum lindenii E.Morren[1] ;
-Hoplophytum lineatum W.Bull[1] ;
-Hoplophytum makoyanum Micheli[1] ;
-Hoplophytum tetrastachyum Beer[1] ;
-Lamprococcus speciosus W.Bull[1] ;
-Macrochordion lindenii (E.Morren) Wittm.[1] ;
-Ortgiesia lindenii (E.Morren) L.B.Sm. &amp; W.J.Kress[1] ;
-Ortgiesia lindenii var. makoyana (Mez) L.B.Sm. &amp; W.J.Kress[1] ;
-Pothuava comata Gaudich.[1] ;
+Aechmea comata var. makoyana (Mez) L.B.Sm. ;
+Aechmea lindenii (E.Morren) Baker ;
+Aechmea lindenii var. makoyana Mez ;
+Aechmea makoyana Jacob-Makoy ;
+Billbergia forgetiana Sander ;
+Chevaliera comata (Gaudich.) Mez ;
+Hohenbergia comata (Gaudich.) Baker ;
+Hoplophytum comatum (Gaudich.) Beer ;
+Hoplophytum lindenii E.Morren ;
+Hoplophytum lineatum W.Bull ;
+Hoplophytum makoyanum Micheli ;
+Hoplophytum tetrastachyum Beer ;
+Lamprococcus speciosus W.Bull ;
+Macrochordion lindenii (E.Morren) Wittm. ;
+Ortgiesia lindenii (E.Morren) L.B.Sm. &amp; W.J.Kress ;
+Ortgiesia lindenii var. makoyana (Mez) L.B.Sm. &amp; W.J.Kress ;
+Pothuava comata Gaudich. ;
 </t>
         </is>
       </c>
